--- a/biology/Médecine/Artère_périostée/Artère_périostée.xlsx
+++ b/biology/Médecine/Artère_périostée/Artère_périostée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_p%C3%A9riost%C3%A9e</t>
+          <t>Artère_périostée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les artères périostées sont des artères situées au niveau du périoste de la diaphyse de l'os. Elles vascularisent le tiers externe de la diaphyse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_p%C3%A9riost%C3%A9e</t>
+          <t>Artère_périostée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les artères périostées sont des rameaux des autres artères vascularisant l'os, à savoir les artères diaphysaires, les artères épiphysaires et les artères métaphysaires, ainsi que les artères musculaires.
 Le sang déchargé de ses fonctions nourricières peut être ensuite évacué par les veines périostées, ayant les mêmes propriétés que ces artères.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_p%C3%A9riost%C3%A9e</t>
+          <t>Artère_périostée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Précautions en chirurgie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lors d'une chirurgie osseuse, il est important de faire attention au périoste, car le décollement de celui-ci peut provoquer la rupture de ces artères et ainsi compromettre la vitalité de l'os.
 </t>
